--- a/らぐおりくりきし.xlsx
+++ b/らぐおりくりきし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATA\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093468EC-9B8C-4A6D-92E3-DFC6D4C6C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC186C-20C4-4E00-9A55-31BC990F334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2025" windowWidth="20730" windowHeight="13575" xr2:uid="{40731946-E458-4D48-8E3D-7D6447F7D5DB}"/>
+    <workbookView xWindow="6945" yWindow="1170" windowWidth="20730" windowHeight="13575" xr2:uid="{40731946-E458-4D48-8E3D-7D6447F7D5DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>物理ダメージ+</t>
     <rPh sb="0" eb="2">
@@ -480,6 +480,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>属性+(%)</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -872,13 +879,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0679420-D78D-4C64-A3E0-E4F5CCDDE56F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -891,9 +898,11 @@
     <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.375" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -967,25 +976,28 @@
         <v>18</v>
       </c>
       <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1076,22 +1088,30 @@
         <v>1.0563</v>
       </c>
       <c r="Z2">
-        <f>(Q2+U2+T2)*V2*W2*(1.5*X2)*Y2</f>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>(Q2+U2+T2)*(V2+Z2/100)*W2*(1.5*X2)*Y2</f>
         <v>16380.532834351414</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>450</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AB9" si="4">Z2*AA2/100</f>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AC9" si="4">AA2*AB2/100</f>
         <v>73712.397754581369</v>
       </c>
-      <c r="AE2">
+      <c r="AD2">
+        <f t="shared" ref="AD2" si="5">AC2/$AC$2</f>
+        <v>1</v>
+      </c>
+      <c r="AF2">
         <f>R2*V2*W2*X2*Y2</f>
         <v>2164.4095351540941</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1139,7 +1159,7 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3" si="5">L3*(M3+1)</f>
+        <f t="shared" ref="N3" si="6">L3*(M3+1)</f>
         <v>2260.6855</v>
       </c>
       <c r="O3">
@@ -1150,15 +1170,15 @@
         <v>0.25</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3" si="6">N3/(1+M3)*(1+P3+M3)</f>
+        <f t="shared" ref="Q3" si="7">N3/(1+M3)*(1+P3+M3)</f>
         <v>2617.2604999999999</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R10" si="7">(Q3+T3+U3)/10+S3</f>
+        <f t="shared" ref="R3:R10" si="8">(Q3+T3+U3)/10+S3</f>
         <v>1390.3272248333333</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3" si="8">O3*(P3+1)</f>
+        <f t="shared" ref="S3" si="9">O3*(P3+1)</f>
         <v>630</v>
       </c>
       <c r="T3">
@@ -1182,30 +1202,34 @@
         <v>1.0563</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z10" si="9">(Q3+U3+T3)*V3*W3*(1.5*X3)*Y3</f>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA9" si="10">(Q3+U3+T3)*(V3+Z3/100)*W3*(1.5*X3)*Y3</f>
         <v>19707.357695290812</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>420</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <f t="shared" si="4"/>
         <v>82770.902320221416</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC9" si="10">AB3/$AB$2</f>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD9" si="11">AC3/$AC$2</f>
         <v>1.1228898372808263</v>
       </c>
-      <c r="AD3">
-        <f>AB3/AB2</f>
+      <c r="AE3">
+        <f>AC3/AC2</f>
         <v>1.1228898372808263</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE9" si="11">R3*V3*W3*X3*Y3</f>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF9" si="12">R3*V3*W3*X3*Y3</f>
         <v>2402.4459503207208</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1218,7 +1242,7 @@
         <v>142</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4" si="12">15+10</f>
+        <f t="shared" ref="D4" si="13">15+10</f>
         <v>25</v>
       </c>
       <c r="E4">
@@ -1246,15 +1270,15 @@
         <v>337</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L9" si="13">B4+C4+D4+F4+E4+G4+H4*0.2+I4*0.3+J4+K4</f>
+        <f t="shared" ref="L4:L9" si="14">B4+C4+D4+F4+E4+G4+H4*0.2+I4*0.3+J4+K4</f>
         <v>1815.8</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M5" si="14">0.0828+G4*0.0025</f>
+        <f t="shared" ref="M4:M5" si="15">0.0828+G4*0.0025</f>
         <v>0.63029999999999997</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N8" si="15">L4*(M4+1)</f>
+        <f t="shared" ref="N4:N8" si="16">L4*(M4+1)</f>
         <v>2960.2987400000002</v>
       </c>
       <c r="O4">
@@ -1265,19 +1289,19 @@
         <v>0.27</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q8" si="16">N4/(1+M4)*(1+P4+M4)</f>
+        <f t="shared" ref="Q4:Q8" si="17">N4/(1+M4)*(1+P4+M4)</f>
         <v>3450.5647400000003</v>
       </c>
       <c r="R4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1647.1720997400002</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S8" si="17">O4*(P4+1)</f>
+        <f t="shared" ref="S4:S8" si="18">O4*(P4+1)</f>
         <v>640.08000000000004</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T9" si="18">200+300+N4*0.05</f>
+        <f t="shared" ref="T4:T9" si="19">200+300+N4*0.05</f>
         <v>648.01493700000003</v>
       </c>
       <c r="U4">
@@ -1297,39 +1321,43 @@
         <v>1.0563</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="9"/>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="10"/>
         <v>32921.843029097261</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>380</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f t="shared" si="4"/>
         <v>125103.0035105696</v>
       </c>
-      <c r="AC4">
-        <f t="shared" si="10"/>
+      <c r="AD4">
+        <f t="shared" si="11"/>
         <v>1.6971772364139952</v>
       </c>
-      <c r="AD4">
-        <f>AB4/AB3</f>
+      <c r="AE4">
+        <f>AC4/AC3</f>
         <v>1.5114369905812444</v>
       </c>
-      <c r="AE4">
-        <f t="shared" si="11"/>
+      <c r="AF4">
+        <f t="shared" si="12"/>
         <v>3589.7373122444178</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B8" si="19">290+20</f>
+        <f t="shared" ref="B5:B8" si="20">290+20</f>
         <v>310</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C9" si="20">71+71</f>
+        <f t="shared" ref="C5:C9" si="21">71+71</f>
         <v>142</v>
       </c>
       <c r="D5">
@@ -1361,15 +1389,15 @@
         <v>337</v>
       </c>
       <c r="L5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1864.3</v>
       </c>
       <c r="M5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.63780000000000003</v>
       </c>
       <c r="N5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3053.3505399999999</v>
       </c>
       <c r="O5">
@@ -1380,19 +1408,19 @@
         <v>0.27</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3556.7115399999998</v>
       </c>
       <c r="R5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1682.1430546199999</v>
       </c>
       <c r="S5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>640.08000000000004</v>
       </c>
       <c r="T5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>652.66752700000006</v>
       </c>
       <c r="U5">
@@ -1412,39 +1440,43 @@
         <v>1.0563</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="9"/>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="10"/>
         <v>34065.043623595258</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>380</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f t="shared" si="4"/>
         <v>129447.16576966198</v>
       </c>
-      <c r="AC5">
-        <f t="shared" si="10"/>
+      <c r="AD5">
+        <f t="shared" si="11"/>
         <v>1.7561111795690649</v>
       </c>
-      <c r="AD5">
-        <f t="shared" ref="AD5:AD9" si="21">AB5/AB4</f>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE9" si="22">AC5/AC4</f>
         <v>1.0347246839579303</v>
       </c>
-      <c r="AE5">
-        <f t="shared" si="11"/>
+      <c r="AF5">
+        <f t="shared" si="12"/>
         <v>3665.9506852109503</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>310</v>
       </c>
       <c r="C6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>142</v>
       </c>
       <c r="D6">
@@ -1476,15 +1508,15 @@
         <v>337</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6" si="22">B6+C6+D6+F6+E6+G6+H6*0.2+I6*0.3+J6+K6</f>
+        <f t="shared" ref="L6" si="23">B6+C6+D6+F6+E6+G6+H6*0.2+I6*0.3+J6+K6</f>
         <v>1894.3</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6" si="23">0.0828+G6*0.0025</f>
+        <f t="shared" ref="M6" si="24">0.0828+G6*0.0025</f>
         <v>0.63780000000000003</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6" si="24">L6*(M6+1)</f>
+        <f t="shared" ref="N6" si="25">L6*(M6+1)</f>
         <v>3102.4845399999999</v>
       </c>
       <c r="O6">
@@ -1495,23 +1527,23 @@
         <v>0.27</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6" si="25">N6/(1+M6)*(1+P6+M6)</f>
+        <f t="shared" ref="Q6" si="26">N6/(1+M6)*(1+P6+M6)</f>
         <v>3613.9455399999997</v>
       </c>
       <c r="R6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1696.5827566200001</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S7" si="26">O6*(P6+1)</f>
+        <f t="shared" ref="S6:S7" si="27">O6*(P6+1)</f>
         <v>640.08000000000004</v>
       </c>
       <c r="T6">
-        <f t="shared" ref="T6" si="27">200+300+N6*0.05</f>
+        <f t="shared" ref="T6" si="28">200+300+N6*0.05</f>
         <v>655.12422700000002</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6" si="28">(Q6+S6)*(G6/150)</f>
+        <f t="shared" ref="U6" si="29">(Q6+S6)*(G6/150)</f>
         <v>6295.9577991999995</v>
       </c>
       <c r="V6">
@@ -1527,43 +1559,47 @@
         <v>1.0563</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="9"/>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="10"/>
         <v>35765.106156333386</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>415</v>
       </c>
-      <c r="AB6">
-        <f t="shared" ref="AB6" si="29">Z6*AA6/100</f>
+      <c r="AC6">
+        <f t="shared" ref="AC6" si="30">AA6*AB6/100</f>
         <v>148425.19054878355</v>
       </c>
-      <c r="AC6">
-        <f t="shared" si="10"/>
+      <c r="AD6">
+        <f t="shared" si="11"/>
         <v>2.0135715981313149</v>
       </c>
-      <c r="AD6">
-        <f t="shared" si="21"/>
+      <c r="AE6">
+        <f t="shared" si="22"/>
         <v>1.1466082680627478</v>
       </c>
-      <c r="AE6">
-        <f t="shared" si="11"/>
+      <c r="AF6">
+        <f t="shared" si="12"/>
         <v>3828.8880941269326</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>310</v>
       </c>
       <c r="C7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>142</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="30">15+10+60</f>
+        <f t="shared" ref="D7:D10" si="31">15+10+60</f>
         <v>85</v>
       </c>
       <c r="E7">
@@ -1587,11 +1623,11 @@
         <v>620</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K10" si="31">85+252</f>
+        <f t="shared" ref="K7:K10" si="32">85+252</f>
         <v>337</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7" si="32">B7+C7+D7+F7+E7+G7+H7*0.2+I7*0.3+J7+K7</f>
+        <f t="shared" ref="L7" si="33">B7+C7+D7+F7+E7+G7+H7*0.2+I7*0.3+J7+K7</f>
         <v>1908.3</v>
       </c>
       <c r="M7">
@@ -1599,30 +1635,30 @@
         <v>0.63780000000000003</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7" si="33">L7*(M7+1)</f>
+        <f t="shared" ref="N7" si="34">L7*(M7+1)</f>
         <v>3125.41374</v>
       </c>
       <c r="O7">
         <v>504</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P10" si="34">0.27</f>
+        <f t="shared" ref="P7:P10" si="35">0.27</f>
         <v>0.27</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7" si="35">N7/(1+M7)*(1+P7+M7)</f>
+        <f t="shared" ref="Q7" si="36">N7/(1+M7)*(1+P7+M7)</f>
         <v>3640.6547399999999</v>
       </c>
       <c r="R7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1703.3212842200001</v>
       </c>
       <c r="S7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>640.08000000000004</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7" si="36">200+300+N7*0.05</f>
+        <f t="shared" ref="T7" si="37">200+300+N7*0.05</f>
         <v>656.27068699999995</v>
       </c>
       <c r="U7">
@@ -1642,43 +1678,47 @@
         <v>1.0563</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="9"/>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="10"/>
         <v>37278.693368549917</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>415</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <f t="shared" si="4"/>
         <v>154706.57747948216</v>
       </c>
-      <c r="AC7">
-        <f t="shared" si="10"/>
+      <c r="AD7">
+        <f t="shared" si="11"/>
         <v>2.0987863940413858</v>
       </c>
-      <c r="AD7">
-        <f t="shared" si="21"/>
+      <c r="AE7">
+        <f t="shared" si="22"/>
         <v>1.0423202214359568</v>
       </c>
-      <c r="AE7">
-        <f t="shared" si="11"/>
+      <c r="AF7">
+        <f t="shared" si="12"/>
         <v>3981.3848969784399</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>310</v>
       </c>
       <c r="C8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>142</v>
       </c>
       <c r="D8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>85</v>
       </c>
       <c r="E8">
@@ -1698,15 +1738,15 @@
         <v>63</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J9" si="37">G8*(1+1)+ROUNDDOWN(G8/10,0)*8</f>
+        <f t="shared" ref="J8:J9" si="38">G8*(1+1)+ROUNDDOWN(G8/10,0)*8</f>
         <v>644</v>
       </c>
       <c r="K8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>337</v>
       </c>
       <c r="L8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1940.3</v>
       </c>
       <c r="M8">
@@ -1714,30 +1754,30 @@
         <v>0.68780000000000008</v>
       </c>
       <c r="N8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3274.8383400000002</v>
       </c>
       <c r="O8">
         <v>700</v>
       </c>
       <c r="P8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.27</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3798.7193400000001</v>
       </c>
       <c r="R8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2054.0297578333334</v>
       </c>
       <c r="S8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>889</v>
       </c>
       <c r="T8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>663.74191700000006</v>
       </c>
       <c r="U8">
@@ -1757,30 +1797,34 @@
         <v>1.0563</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="9"/>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="10"/>
         <v>42261.856447928891</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>415</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f t="shared" si="4"/>
         <v>175386.70425890491</v>
       </c>
-      <c r="AC8">
-        <f t="shared" si="10"/>
+      <c r="AD8">
+        <f t="shared" si="11"/>
         <v>2.3793379350219861</v>
       </c>
-      <c r="AD8">
-        <f t="shared" si="21"/>
+      <c r="AE8">
+        <f t="shared" si="22"/>
         <v>1.1336732226667314</v>
       </c>
-      <c r="AE8">
-        <f t="shared" si="11"/>
+      <c r="AF8">
+        <f t="shared" si="12"/>
         <v>4967.3758792660192</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1789,11 +1833,11 @@
         <v>390</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>142</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>85</v>
       </c>
       <c r="E9" s="2">
@@ -1813,15 +1857,15 @@
         <v>63</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>652</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>337</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2032.3000000000002</v>
       </c>
       <c r="M9" s="2">
@@ -1829,30 +1873,30 @@
         <v>0.69779999999999998</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" ref="N9" si="38">L9*(M9+1)</f>
+        <f t="shared" ref="N9" si="39">L9*(M9+1)</f>
         <v>3450.4389400000005</v>
       </c>
       <c r="O9" s="2">
         <v>700</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.27</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" ref="Q9" si="39">N9/(1+M9)*(1+P9+M9)</f>
+        <f t="shared" ref="Q9" si="40">N9/(1+M9)*(1+P9+M9)</f>
         <v>3999.1599400000009</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2173.1892072428573</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" ref="S9" si="40">O9*(P9+1)</f>
+        <f t="shared" ref="S9" si="41">O9*(P9+1)</f>
         <v>889</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>672.52194700000007</v>
       </c>
       <c r="U9" s="2">
@@ -1872,30 +1916,34 @@
         <v>1.0563</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="9"/>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="10"/>
         <v>46893.604706350648</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <v>420</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AC9" s="2">
         <f t="shared" si="4"/>
         <v>196953.13976667274</v>
       </c>
-      <c r="AC9" s="2">
-        <f t="shared" si="10"/>
+      <c r="AD9" s="2">
+        <f t="shared" si="11"/>
         <v>2.6719133519765572</v>
       </c>
-      <c r="AD9" s="2">
-        <f t="shared" si="21"/>
+      <c r="AE9" s="2">
+        <f t="shared" si="22"/>
         <v>1.1229650537017424</v>
       </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="11"/>
+      <c r="AF9" s="2">
+        <f t="shared" si="12"/>
         <v>5290.4289109313358</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" s="3" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1908,7 +1956,7 @@
         <v>156</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>85</v>
       </c>
       <c r="E10" s="3">
@@ -1932,11 +1980,11 @@
         <v>450</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>337</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" ref="L10" si="41">B10+C10+D10+F10+E10+G10+H10*0.2+I10*0.3+J10+K10</f>
+        <f t="shared" ref="L10" si="42">B10+C10+D10+F10+E10+G10+H10*0.2+I10*0.3+J10+K10</f>
         <v>1834.7</v>
       </c>
       <c r="M10" s="3">
@@ -1944,30 +1992,30 @@
         <v>0.71530000000000005</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" ref="N10" si="42">L10*(M10+1)</f>
+        <f t="shared" ref="N10" si="43">L10*(M10+1)</f>
         <v>3147.0609100000001</v>
       </c>
       <c r="O10" s="3">
         <v>700</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.27</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" ref="Q10" si="43">N10/(1+M10)*(1+P10+M10)</f>
+        <f t="shared" ref="Q10" si="44">N10/(1+M10)*(1+P10+M10)</f>
         <v>3642.4299100000003</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2047.2438168000003</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" ref="S10" si="44">O10*(P10+1)</f>
+        <f t="shared" ref="S10" si="45">O10*(P10+1)</f>
         <v>889</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" ref="T10" si="45">200+300+N10*0.05</f>
+        <f t="shared" ref="T10" si="46">200+300+N10*0.05</f>
         <v>657.35304550000001</v>
       </c>
       <c r="U10" s="3">
@@ -1987,26 +2035,30 @@
         <v>1.1762999999999999</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="9"/>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" ref="AA10" si="47">(Q10+U10+T10)*V10*W10*(1.5*X10)*Y10</f>
         <v>51971.755976601788</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>420</v>
       </c>
-      <c r="AB10" s="3">
-        <f t="shared" ref="AB10" si="46">Z10*AA10/100</f>
+      <c r="AC10" s="3">
+        <f t="shared" ref="AC10" si="48">AA10*AB10/100</f>
         <v>218281.37510172752</v>
       </c>
-      <c r="AC10" s="3">
-        <f t="shared" ref="AC10" si="47">AB10/$AB$2</f>
+      <c r="AD10" s="3">
+        <f t="shared" ref="AD10" si="49">AC10/$AC$2</f>
         <v>2.9612572884750707</v>
       </c>
-      <c r="AD10" s="3">
-        <f t="shared" ref="AD10" si="48">AB10/AB9</f>
+      <c r="AE10" s="3">
+        <f t="shared" ref="AE10" si="50">AC10/AC9</f>
         <v>1.1082909130584158</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:32" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/らぐおりくりきし.xlsx
+++ b/らぐおりくりきし.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATA\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC186C-20C4-4E00-9A55-31BC990F334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10CFD06-C01E-4798-A6C6-85EA257AA5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="1170" windowWidth="20730" windowHeight="13575" xr2:uid="{40731946-E458-4D48-8E3D-7D6447F7D5DB}"/>
+    <workbookView xWindow="465" yWindow="1815" windowWidth="20730" windowHeight="13575" xr2:uid="{40731946-E458-4D48-8E3D-7D6447F7D5DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>物理ダメージ+</t>
     <rPh sb="0" eb="2">
@@ -115,13 +115,6 @@
     <t>装備ボナ</t>
     <rPh sb="0" eb="2">
       <t>ソウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物理増加</t>
-    <rPh sb="0" eb="4">
-      <t>ブツリゾウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -467,23 +460,60 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対人ダメ</t>
+    <t>属性+(%)</t>
     <rPh sb="0" eb="2">
-      <t>タイジン</t>
+      <t>ゾクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>直前</t>
+    <t>サイズ(%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示
+物理増加</t>
     <rPh sb="0" eb="2">
-      <t>チョクゼン</t>
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ブツリゾウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>属性+(%)</t>
+    <t>スキル使用後
+表示物理増加</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ブツリゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル使用後
+実際の物理増加</t>
+    <rPh sb="7" eb="9">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ブツリゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際の
+物理増加</t>
     <rPh sb="0" eb="2">
-      <t>ゾクセイ</t>
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ブツリゾウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -517,7 +547,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -534,24 +564,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,9 +578,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,127 +895,139 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0679420-D78D-4C64-A3E0-E4F5CCDDE56F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomRight" activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.375" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.25" customWidth="1"/>
+    <col min="24" max="24" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.375" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <f>307+20</f>
@@ -1029,8 +1057,8 @@
         <v>45</v>
       </c>
       <c r="J2">
-        <f>G2*(1+1)+ROUNDDOWN(G2/10,0)*4</f>
-        <v>432</v>
+        <f>G2*(2+1)+ROUNDDOWN(G2/10,0)*4</f>
+        <v>612</v>
       </c>
       <c r="K2">
         <f>30</f>
@@ -1038,82 +1066,93 @@
       </c>
       <c r="L2">
         <f>B2+C2+D2+F2+E2+G2+H2*0.2+I2*0.3+J2+K2</f>
-        <v>1292.3</v>
+        <v>1472.3</v>
       </c>
       <c r="M2">
-        <f>0.08+G2*0.0025</f>
-        <v>0.53</v>
+        <f>0.08</f>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="0">L2*(M2+1)</f>
-        <v>1977.2190000000001</v>
+        <f>M2+G2*0.0005</f>
+        <v>0.16999999999999998</v>
       </c>
       <c r="O2">
+        <f>L2*(N2+1)</f>
+        <v>1722.5909999999999</v>
+      </c>
+      <c r="P2">
         <v>504</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <f>0.25</f>
         <v>0.25</v>
       </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2" si="1">N2/(1+M2)*(1+P2+M2)</f>
-        <v>2300.2939999999999</v>
-      </c>
       <c r="R2">
-        <f>(Q2+T2+U2)/10+S2</f>
-        <v>1271.5507749999999</v>
+        <f>Q2+M2</f>
+        <v>0.33</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2" si="2">O2*(P2+1)</f>
+        <f t="shared" ref="S2:S9" si="0">R2+G2*0.0005</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T3" si="1">O2/(1+M2)*(1+S2)</f>
+        <v>2264.8881666666666</v>
+      </c>
+      <c r="U2">
+        <f>(T2+W2+X2)/10+V2</f>
+        <v>1186.8883516666667</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2" si="2">P2*(Q2+1)</f>
         <v>630</v>
       </c>
-      <c r="T2">
-        <f>200+300+N2*0.05</f>
-        <v>598.86095</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U8" si="3">(Q2+S2)*(G2/150)</f>
-        <v>3516.3527999999997</v>
-      </c>
-      <c r="V2">
+      <c r="W2">
+        <f>200+300+O2*0.05</f>
+        <v>586.12954999999999</v>
+      </c>
+      <c r="X2">
+        <f>(T2)*(G2/150)</f>
+        <v>2717.8658</v>
+      </c>
+      <c r="Y2">
         <v>1.32</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <v>1.0563</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AA2">
-        <f>(Q2+U2+T2)*(V2+Z2/100)*W2*(1.5*X2)*Y2</f>
-        <v>16380.532834351414</v>
-      </c>
-      <c r="AB2">
+      <c r="AE2">
+        <f t="shared" ref="AE2:AE3" si="3">(T2+X2+W2)*(Y2+(AC2+AD2)/100)*Z2*(1.5*AA2)*AB2</f>
+        <v>14218.871342714332</v>
+      </c>
+      <c r="AF2">
         <v>450</v>
       </c>
-      <c r="AC2">
-        <f t="shared" ref="AC2:AC9" si="4">AA2*AB2/100</f>
-        <v>73712.397754581369</v>
-      </c>
-      <c r="AD2">
-        <f t="shared" ref="AD2" si="5">AC2/$AC$2</f>
+      <c r="AG2">
+        <f t="shared" ref="AG2:AG8" si="4">AE2*AF2/100</f>
+        <v>63984.92104221449</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" ref="AH2" si="5">AG2/$AG$2</f>
         <v>1</v>
       </c>
-      <c r="AF2">
-        <f>R2*V2*W2*X2*Y2</f>
-        <v>2164.4095351540941</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <f>307+20</f>
@@ -1143,8 +1182,8 @@
         <v>45</v>
       </c>
       <c r="J3">
-        <f>G3*(1+1)+ROUNDDOWN(G3/10,0)*4</f>
-        <v>484</v>
+        <f t="shared" ref="J3:J8" si="6">G3*(2+1)+ROUNDDOWN(G3/10,0)*4</f>
+        <v>686</v>
       </c>
       <c r="K3">
         <f>60+30</f>
@@ -1152,454 +1191,501 @@
       </c>
       <c r="L3">
         <f>B3+C3+D3+F3+E3+G3+H3*0.2+I3*0.3+J3+K3</f>
-        <v>1426.3</v>
+        <v>1628.3</v>
       </c>
       <c r="M3">
-        <f>0.08+G3*0.0025</f>
-        <v>0.58499999999999996</v>
+        <f>0.08</f>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3" si="6">L3*(M3+1)</f>
-        <v>2260.6855</v>
+        <f t="shared" ref="N3:N9" si="7">M3+G3*0.0005</f>
+        <v>0.18099999999999999</v>
       </c>
       <c r="O3">
+        <f t="shared" ref="O3:O9" si="8">L3*(N3+1)</f>
+        <v>1923.0223000000001</v>
+      </c>
+      <c r="P3">
         <v>504</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <f>0.25</f>
         <v>0.25</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3" si="7">N3/(1+M3)*(1+P3+M3)</f>
-        <v>2617.2604999999999</v>
-      </c>
       <c r="R3">
-        <f t="shared" ref="R3:R10" si="8">(Q3+T3+U3)/10+S3</f>
-        <v>1390.3272248333333</v>
+        <f t="shared" ref="R3:R9" si="9">Q3+M3</f>
+        <v>0.33</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3" si="9">O3*(P3+1)</f>
+        <f t="shared" si="0"/>
+        <v>0.43100000000000005</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="1"/>
+        <v>2548.0045475000002</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U9" si="10">(T3+W3+X3)/10+V3</f>
+        <v>1372.3868453133334</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3" si="11">P3*(Q3+1)</f>
         <v>630</v>
       </c>
-      <c r="T3">
-        <f>200+300+N3*0.05</f>
-        <v>613.03427499999998</v>
-      </c>
-      <c r="U3">
+      <c r="W3">
+        <f>200+300+O3*0.05</f>
+        <v>596.151115</v>
+      </c>
+      <c r="X3">
+        <f>(T3+V3)*(G3/150)</f>
+        <v>4279.7127906333335</v>
+      </c>
+      <c r="Y3">
+        <v>1.34</v>
+      </c>
+      <c r="Z3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AA3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AB3">
+        <v>1.0563</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <f t="shared" si="3"/>
-        <v>4372.9774733333334</v>
-      </c>
-      <c r="V3">
-        <v>1.34</v>
-      </c>
-      <c r="W3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="X3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Y3">
-        <v>1.0563</v>
-      </c>
-      <c r="Z3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA9" si="10">(Q3+U3+T3)*(V3+Z3/100)*W3*(1.5*X3)*Y3</f>
-        <v>19707.357695290812</v>
-      </c>
-      <c r="AB3">
+        <v>19242.350702456366</v>
+      </c>
+      <c r="AF3">
         <v>420</v>
       </c>
-      <c r="AC3">
+      <c r="AG3">
         <f t="shared" si="4"/>
-        <v>82770.902320221416</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD9" si="11">AC3/$AC$2</f>
-        <v>1.1228898372808263</v>
-      </c>
-      <c r="AE3">
-        <f>AC3/AC2</f>
-        <v>1.1228898372808263</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" ref="AF3:AF9" si="12">R3*V3*W3*X3*Y3</f>
-        <v>2402.4459503207208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+        <v>80817.872950316727</v>
+      </c>
+      <c r="AH3">
+        <f>AG3/$AG$2</f>
+        <v>1.2630768567643709</v>
+      </c>
+      <c r="AI3">
+        <f>AG3/AG2</f>
+        <v>1.2630768567643709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <f>290+20</f>
+        <f t="shared" ref="B4:B7" si="12">290+20</f>
         <v>310</v>
       </c>
       <c r="C4">
-        <f>71+71</f>
+        <f t="shared" ref="C4:C8" si="13">71+71</f>
         <v>142</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4" si="13">15+10</f>
-        <v>25</v>
+        <f>15+10+45</f>
+        <v>70</v>
       </c>
       <c r="E4">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F4">
         <v>36</v>
       </c>
       <c r="G4">
-        <f>99+120</f>
-        <v>219</v>
+        <f>99+127</f>
+        <v>226</v>
       </c>
       <c r="H4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <f>13+42</f>
+        <v>55</v>
       </c>
       <c r="J4">
-        <f>G4*(1+1)+ROUNDDOWN(G4/10,0)*8</f>
-        <v>606</v>
+        <f t="shared" si="6"/>
+        <v>766</v>
       </c>
       <c r="K4">
-        <f>85+252</f>
-        <v>337</v>
+        <f>85+254</f>
+        <v>339</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L9" si="14">B4+C4+D4+F4+E4+G4+H4*0.2+I4*0.3+J4+K4</f>
-        <v>1815.8</v>
+        <f t="shared" ref="L4:L8" si="14">B4+C4+D4+F4+E4+G4+H4*0.2+I4*0.3+J4+K4</f>
+        <v>2046.5</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M5" si="15">0.0828+G4*0.0025</f>
-        <v>0.63029999999999997</v>
+        <f>0.0935</f>
+        <v>9.35E-2</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N8" si="16">L4*(M4+1)</f>
-        <v>2960.2987400000002</v>
+        <f t="shared" si="7"/>
+        <v>0.20650000000000002</v>
       </c>
       <c r="O4">
+        <f t="shared" si="8"/>
+        <v>2469.1022500000004</v>
+      </c>
+      <c r="P4">
         <v>504</v>
       </c>
-      <c r="P4">
-        <f>0.27</f>
-        <v>0.27</v>
-      </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q8" si="17">N4/(1+M4)*(1+P4+M4)</f>
-        <v>3450.5647400000003</v>
+        <f>0.25</f>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <f t="shared" si="8"/>
-        <v>1647.1720997400002</v>
+        <f t="shared" si="9"/>
+        <v>0.34350000000000003</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S8" si="18">O4*(P4+1)</f>
-        <v>640.08000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.45650000000000002</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T9" si="19">200+300+N4*0.05</f>
-        <v>648.01493700000003</v>
+        <f>O4/(1+M4)*(1+S4)</f>
+        <v>3288.7493617969835</v>
       </c>
       <c r="U4">
-        <f t="shared" si="3"/>
-        <v>5972.3413203999999</v>
+        <f t="shared" si="10"/>
+        <v>1611.6453512737771</v>
       </c>
       <c r="V4">
-        <v>1.4061999999999999</v>
+        <f t="shared" ref="V4:V7" si="15">P4*(Q4+1)</f>
+        <v>630</v>
       </c>
       <c r="W4">
+        <f t="shared" ref="W4:W8" si="16">200+300+O4*0.05</f>
+        <v>623.45511250000004</v>
+      </c>
+      <c r="X4">
+        <f>(T4+V4)*(G4/150)</f>
+        <v>5904.2490384407884</v>
+      </c>
+      <c r="Y4">
+        <v>1.427</v>
+      </c>
+      <c r="Z4">
         <v>1.1200000000000001</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>1.31</v>
       </c>
-      <c r="Y4">
+      <c r="AB4">
         <v>1.0563</v>
       </c>
-      <c r="Z4">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AA4">
-        <f t="shared" si="10"/>
-        <v>32921.843029097261</v>
-      </c>
-      <c r="AB4">
+      <c r="AE4">
+        <f>(T4+X4+W4)*(Y4+(AC4+AD4)/100)*Z4*(1.5*AA4)*AB4</f>
+        <v>32564.652230193744</v>
+      </c>
+      <c r="AF4">
         <v>380</v>
       </c>
-      <c r="AC4">
+      <c r="AG4">
         <f t="shared" si="4"/>
-        <v>125103.0035105696</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="11"/>
-        <v>1.6971772364139952</v>
-      </c>
-      <c r="AE4">
-        <f>AC4/AC3</f>
-        <v>1.5114369905812444</v>
-      </c>
-      <c r="AF4">
+        <v>123745.67847473623</v>
+      </c>
+      <c r="AH4">
+        <f>AG4/$AG$2</f>
+        <v>1.9339818891562617</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" ref="AI4:AI7" si="17">AG4/AG3</f>
+        <v>1.5311672277097619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
         <f t="shared" si="12"/>
-        <v>3589.7373122444178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ref="B5:B8" si="20">290+20</f>
         <v>310</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C9" si="21">71+71</f>
+        <f t="shared" si="13"/>
         <v>142</v>
       </c>
       <c r="D5">
-        <f>15+10+30</f>
-        <v>55</v>
+        <f>15+10+60</f>
+        <v>85</v>
       </c>
       <c r="E5">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F5">
         <v>36</v>
       </c>
       <c r="G5">
-        <f>99+123</f>
-        <v>222</v>
+        <f>99+127</f>
+        <v>226</v>
       </c>
       <c r="H5">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I5">
-        <v>63</v>
+        <f t="shared" ref="I5:I9" si="18">13+42</f>
+        <v>55</v>
       </c>
       <c r="J5">
-        <f>G5*(1+1)+ROUNDDOWN(G5/10,0)*8</f>
-        <v>620</v>
+        <f t="shared" si="6"/>
+        <v>766</v>
       </c>
       <c r="K5">
-        <f>85+252</f>
-        <v>337</v>
+        <f t="shared" ref="K5:K9" si="19">85+254</f>
+        <v>339</v>
       </c>
       <c r="L5">
-        <f t="shared" si="14"/>
-        <v>1864.3</v>
+        <f t="shared" ref="L5" si="20">B5+C5+D5+F5+E5+G5+H5*0.2+I5*0.3+J5+K5</f>
+        <v>2061.5</v>
       </c>
       <c r="M5">
-        <f t="shared" si="15"/>
-        <v>0.63780000000000003</v>
+        <f t="shared" ref="M5:M9" si="21">0.0935</f>
+        <v>9.35E-2</v>
       </c>
       <c r="N5">
-        <f t="shared" si="16"/>
-        <v>3053.3505399999999</v>
+        <f t="shared" si="7"/>
+        <v>0.20650000000000002</v>
       </c>
       <c r="O5">
+        <f t="shared" si="8"/>
+        <v>2487.1997500000002</v>
+      </c>
+      <c r="P5">
         <v>504</v>
       </c>
-      <c r="P5">
-        <f>0.27</f>
-        <v>0.27</v>
-      </c>
       <c r="Q5">
+        <f t="shared" ref="Q5:Q8" si="22">0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="9"/>
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T9" si="23">O5/(1+M5)*(1+S5)</f>
+        <v>3312.8545366941021</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="10"/>
+        <v>1617.7782026146549</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V6" si="24">P5*(Q5+1)</f>
+        <v>630</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5" si="25">200+300+O5*0.05</f>
+        <v>624.35998749999999</v>
+      </c>
+      <c r="X5">
+        <f>(T5+V5)*(G5/150)</f>
+        <v>5940.5675019524469</v>
+      </c>
+      <c r="Y5">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>1.31</v>
+      </c>
+      <c r="AB5">
+        <v>1.0563</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE9" si="26">(T5+X5+W5)*(Y5+(AC5+AD5)/100)*Z5*(1.5*AA5)*AB5</f>
+        <v>33916.247108121752</v>
+      </c>
+      <c r="AF5">
+        <v>415</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ref="AG5" si="27">AE5*AF5/100</f>
+        <v>140752.42549870527</v>
+      </c>
+      <c r="AH5">
+        <f>AG5/$AG$2</f>
+        <v>2.1997749345637683</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="17"/>
-        <v>3556.7115399999998</v>
-      </c>
-      <c r="R5">
+        <v>1.1374330581365806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="12"/>
+        <v>310</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="13"/>
+        <v>142</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D9" si="28">15+10+60</f>
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <f>99+127</f>
+        <v>226</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="18"/>
+        <v>55</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>766</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="19"/>
+        <v>339</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6" si="29">B6+C6+D6+F6+E6+G6+H6*0.2+I6*0.3+J6+K6</f>
+        <v>2059.5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="21"/>
+        <v>9.35E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>0.20650000000000002</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="8"/>
-        <v>1682.1430546199999</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="18"/>
-        <v>640.08000000000004</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="19"/>
-        <v>652.66752700000006</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="3"/>
-        <v>6211.2514792000002</v>
-      </c>
-      <c r="V5">
-        <v>1.4061999999999999</v>
-      </c>
-      <c r="W5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="X5">
+        <v>2484.7867500000002</v>
+      </c>
+      <c r="P6">
+        <v>504</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="22"/>
+        <v>0.25</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="9"/>
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="23"/>
+        <v>3309.6405133744865</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="10"/>
+        <v>1616.9604891025378</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="24"/>
+        <v>630</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6" si="30">200+300+O6*0.05</f>
+        <v>624.23933750000003</v>
+      </c>
+      <c r="X6">
+        <f>(T6+V6)*(G6/150)</f>
+        <v>5935.7250401508927</v>
+      </c>
+      <c r="Y6">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AA6">
         <v>1.31</v>
       </c>
-      <c r="Y5">
+      <c r="AB6">
         <v>1.0563</v>
       </c>
-      <c r="Z5">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AA5">
-        <f t="shared" si="10"/>
-        <v>34065.043623595258</v>
-      </c>
-      <c r="AB5">
-        <v>380</v>
-      </c>
-      <c r="AC5">
+      <c r="AE6">
+        <f t="shared" si="26"/>
+        <v>35098.461976394043</v>
+      </c>
+      <c r="AF6">
+        <v>415</v>
+      </c>
+      <c r="AG6">
         <f t="shared" si="4"/>
-        <v>129447.16576966198</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="11"/>
-        <v>1.7561111795690649</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" ref="AE5:AE9" si="22">AC5/AC4</f>
-        <v>1.0347246839579303</v>
-      </c>
-      <c r="AF5">
+        <v>145658.61720203527</v>
+      </c>
+      <c r="AH6">
+        <f>AG6/$AG$2</f>
+        <v>2.2764522457710936</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="17"/>
+        <v>1.0348568892219561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="12"/>
-        <v>3665.9506852109503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="20"/>
         <v>310</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="21"/>
+      <c r="C7">
+        <f t="shared" si="13"/>
         <v>142</v>
       </c>
-      <c r="D6">
-        <f>15+10+60</f>
-        <v>85</v>
-      </c>
-      <c r="E6">
-        <v>116</v>
-      </c>
-      <c r="F6">
-        <v>36</v>
-      </c>
-      <c r="G6">
-        <f>99+123</f>
-        <v>222</v>
-      </c>
-      <c r="H6">
-        <v>37</v>
-      </c>
-      <c r="I6">
-        <v>63</v>
-      </c>
-      <c r="J6">
-        <f>G6*(1+1)+ROUNDDOWN(G6/10,0)*8</f>
-        <v>620</v>
-      </c>
-      <c r="K6">
-        <f>85+252</f>
-        <v>337</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ref="L6" si="23">B6+C6+D6+F6+E6+G6+H6*0.2+I6*0.3+J6+K6</f>
-        <v>1894.3</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ref="M6" si="24">0.0828+G6*0.0025</f>
-        <v>0.63780000000000003</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6" si="25">L6*(M6+1)</f>
-        <v>3102.4845399999999</v>
-      </c>
-      <c r="O6">
-        <v>504</v>
-      </c>
-      <c r="P6">
-        <f>0.27</f>
-        <v>0.27</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6" si="26">N6/(1+M6)*(1+P6+M6)</f>
-        <v>3613.9455399999997</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="8"/>
-        <v>1696.5827566200001</v>
-      </c>
-      <c r="S6">
-        <f t="shared" ref="S6:S7" si="27">O6*(P6+1)</f>
-        <v>640.08000000000004</v>
-      </c>
-      <c r="T6">
-        <f t="shared" ref="T6" si="28">200+300+N6*0.05</f>
-        <v>655.12422700000002</v>
-      </c>
-      <c r="U6">
-        <f t="shared" ref="U6" si="29">(Q6+S6)*(G6/150)</f>
-        <v>6295.9577991999995</v>
-      </c>
-      <c r="V6">
-        <v>1.4561999999999999</v>
-      </c>
-      <c r="W6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="X6">
-        <v>1.31</v>
-      </c>
-      <c r="Y6">
-        <v>1.0563</v>
-      </c>
-      <c r="Z6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="10"/>
-        <v>35765.106156333386</v>
-      </c>
-      <c r="AB6">
-        <v>415</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" ref="AC6" si="30">AA6*AB6/100</f>
-        <v>148425.19054878355</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="11"/>
-        <v>2.0135715981313149</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="22"/>
-        <v>1.1466082680627478</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="12"/>
-        <v>3828.8880941269326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="20"/>
-        <v>310</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="21"/>
-        <v>142</v>
-      </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="31">15+10+60</f>
+        <f t="shared" si="28"/>
         <v>85</v>
       </c>
       <c r="E7">
@@ -1609,222 +1695,246 @@
         <v>26</v>
       </c>
       <c r="G7">
-        <f>99+123</f>
-        <v>222</v>
+        <f>99+127+5+3</f>
+        <v>234</v>
       </c>
       <c r="H7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I7">
-        <v>63</v>
+        <f t="shared" si="18"/>
+        <v>55</v>
       </c>
       <c r="J7">
-        <f>G7*(1+1)+ROUNDDOWN(G7/10,0)*8</f>
-        <v>620</v>
+        <f t="shared" si="6"/>
+        <v>794</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K10" si="32">85+252</f>
-        <v>337</v>
+        <f t="shared" si="19"/>
+        <v>339</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7" si="33">B7+C7+D7+F7+E7+G7+H7*0.2+I7*0.3+J7+K7</f>
-        <v>1908.3</v>
+        <f t="shared" si="14"/>
+        <v>2095.5</v>
       </c>
       <c r="M7">
-        <f>0.0828+G7*0.0025</f>
-        <v>0.63780000000000003</v>
+        <f t="shared" si="21"/>
+        <v>9.35E-2</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7" si="34">L7*(M7+1)</f>
-        <v>3125.41374</v>
+        <f t="shared" si="7"/>
+        <v>0.21050000000000002</v>
       </c>
       <c r="O7">
-        <v>504</v>
+        <f t="shared" si="8"/>
+        <v>2536.6027500000005</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P10" si="35">0.27</f>
-        <v>0.27</v>
+        <v>700</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7" si="36">N7/(1+M7)*(1+P7+M7)</f>
-        <v>3640.6547399999999</v>
+        <f t="shared" si="22"/>
+        <v>0.25</v>
       </c>
       <c r="R7">
+        <f t="shared" si="9"/>
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.46050000000000002</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="23"/>
+        <v>3387.9362746913594</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="10"/>
+        <v>1941.4947000709878</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="15"/>
+        <v>875</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="16"/>
+        <v>626.83013750000009</v>
+      </c>
+      <c r="X7">
+        <f>(T7+V7)*(G7/150)</f>
+        <v>6650.1805885185204</v>
+      </c>
+      <c r="Y7">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>1.31</v>
+      </c>
+      <c r="AB7">
+        <v>1.0563</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="26"/>
+        <v>40237.919900077912</v>
+      </c>
+      <c r="AF7">
+        <v>415</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="4"/>
+        <v>166987.36758532334</v>
+      </c>
+      <c r="AH7">
+        <f>AG7/$AG$2</f>
+        <v>2.6097925083810338</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="17"/>
+        <v>1.1464297189757342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2">
+        <f>370+20</f>
+        <v>390</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="13"/>
+        <v>142</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="28"/>
+        <v>85</v>
+      </c>
+      <c r="E8" s="2">
+        <v>140</v>
+      </c>
+      <c r="F8" s="2">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2">
+        <f>99+127+5+3</f>
+        <v>234</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="18"/>
+        <v>55</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="6"/>
+        <v>794</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="19"/>
+        <v>339</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="14"/>
+        <v>2175.5</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="21"/>
+        <v>9.35E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.21050000000000002</v>
+      </c>
+      <c r="O8" s="2">
         <f t="shared" si="8"/>
-        <v>1703.3212842200001</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="27"/>
-        <v>640.08000000000004</v>
-      </c>
-      <c r="T7">
-        <f t="shared" ref="T7" si="37">200+300+N7*0.05</f>
-        <v>656.27068699999995</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="3"/>
-        <v>6335.4874151999993</v>
-      </c>
-      <c r="V7">
-        <v>1.4561999999999999</v>
-      </c>
-      <c r="W7">
+        <v>2633.4427500000002</v>
+      </c>
+      <c r="P8" s="2">
+        <v>700</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="22"/>
+        <v>0.25</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="9"/>
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46050000000000002</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="23"/>
+        <v>3517.2776738683137</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="10"/>
+        <v>1975.0902982602881</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" ref="V8" si="31">P8*(Q8+1)</f>
+        <v>875</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="16"/>
+        <v>631.67213749999996</v>
+      </c>
+      <c r="X8" s="2">
+        <f>(T8+V8)*(G8/150)</f>
+        <v>6851.9531712345688</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="Z8" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="X7">
+      <c r="AA8" s="2">
         <v>1.31</v>
       </c>
-      <c r="Y7">
+      <c r="AB8" s="2">
         <v>1.0563</v>
       </c>
-      <c r="Z7">
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AA7">
-        <f t="shared" si="10"/>
-        <v>37278.693368549917</v>
-      </c>
-      <c r="AB7">
-        <v>415</v>
-      </c>
-      <c r="AC7">
+      <c r="AE8" s="2">
+        <f t="shared" si="26"/>
+        <v>41505.452677171212</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG8" s="2">
         <f t="shared" si="4"/>
-        <v>154706.57747948216</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="11"/>
-        <v>2.0987863940413858</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="22"/>
-        <v>1.0423202214359568</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="12"/>
-        <v>3981.3848969784399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="20"/>
-        <v>310</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="21"/>
-        <v>142</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="31"/>
-        <v>85</v>
-      </c>
-      <c r="E8">
-        <v>140</v>
-      </c>
-      <c r="F8">
-        <v>26</v>
-      </c>
-      <c r="G8">
-        <f>99+123+5+3</f>
-        <v>230</v>
-      </c>
-      <c r="H8">
-        <v>37</v>
-      </c>
-      <c r="I8">
-        <v>63</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J9" si="38">G8*(1+1)+ROUNDDOWN(G8/10,0)*8</f>
-        <v>644</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="32"/>
-        <v>337</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="14"/>
-        <v>1940.3</v>
-      </c>
-      <c r="M8">
-        <f>0.1128+G8*0.0025</f>
-        <v>0.68780000000000008</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="16"/>
-        <v>3274.8383400000002</v>
-      </c>
-      <c r="O8">
-        <v>700</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="35"/>
-        <v>0.27</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="17"/>
-        <v>3798.7193400000001</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="8"/>
-        <v>2054.0297578333334</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="18"/>
-        <v>889</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="19"/>
-        <v>663.74191700000006</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="3"/>
-        <v>7187.8363213333332</v>
-      </c>
-      <c r="V8">
-        <v>1.5066200000000001</v>
-      </c>
-      <c r="W8">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="X8">
-        <v>1.31</v>
-      </c>
-      <c r="Y8">
-        <v>1.0563</v>
-      </c>
-      <c r="Z8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="10"/>
-        <v>42261.856447928891</v>
-      </c>
-      <c r="AB8">
-        <v>415</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="4"/>
-        <v>175386.70425890491</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="11"/>
-        <v>2.3793379350219861</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="22"/>
-        <v>1.1336732226667314</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="12"/>
-        <v>4967.3758792660192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>174322.9012441191</v>
+      </c>
+      <c r="AH8" s="2">
+        <f>AG8/$AG$2</f>
+        <v>2.7244372330960349</v>
+      </c>
+      <c r="AI8" s="2">
+        <f t="shared" ref="AI8" si="32">AG8/AG7</f>
+        <v>1.0439286741558316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="2" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1833,11 +1943,11 @@
         <v>390</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="21"/>
-        <v>142</v>
+        <f>93+63</f>
+        <v>156</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>85</v>
       </c>
       <c r="E9" s="2">
@@ -1847,218 +1957,115 @@
         <v>26</v>
       </c>
       <c r="G9" s="2">
-        <f>99+127+5+3</f>
-        <v>234</v>
-      </c>
-      <c r="H9" s="2">
-        <v>37</v>
-      </c>
-      <c r="I9" s="2">
-        <v>63</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="38"/>
-        <v>652</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="32"/>
-        <v>337</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="14"/>
-        <v>2032.3000000000002</v>
-      </c>
-      <c r="M9" s="2">
-        <f>0.1128+G9*0.0025</f>
-        <v>0.69779999999999998</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" ref="N9" si="39">L9*(M9+1)</f>
-        <v>3450.4389400000005</v>
-      </c>
-      <c r="O9" s="2">
-        <v>700</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="35"/>
-        <v>0.27</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" ref="Q9" si="40">N9/(1+M9)*(1+P9+M9)</f>
-        <v>3999.1599400000009</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="8"/>
-        <v>2173.1892072428573</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" ref="S9" si="41">O9*(P9+1)</f>
-        <v>889</v>
-      </c>
-      <c r="T9" s="2">
-        <f t="shared" si="19"/>
-        <v>672.52194700000007</v>
-      </c>
-      <c r="U9" s="2">
-        <f>(Q9+S9)*(G9/140)</f>
-        <v>8170.2101854285738</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1.5166200000000001</v>
-      </c>
-      <c r="W9" s="2">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="X9" s="2">
-        <v>1.31</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>1.0563</v>
-      </c>
-      <c r="Z9" s="2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <f t="shared" si="10"/>
-        <v>46893.604706350648</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>420</v>
-      </c>
-      <c r="AC9" s="2">
-        <f t="shared" si="4"/>
-        <v>196953.13976667274</v>
-      </c>
-      <c r="AD9" s="2">
-        <f t="shared" si="11"/>
-        <v>2.6719133519765572</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="22"/>
-        <v>1.1229650537017424</v>
-      </c>
-      <c r="AF9" s="2">
-        <f t="shared" si="12"/>
-        <v>5290.4289109313358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" s="3" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3">
-        <f>370+20</f>
-        <v>390</v>
-      </c>
-      <c r="C10" s="3">
-        <f>93+63</f>
-        <v>156</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="31"/>
-        <v>85</v>
-      </c>
-      <c r="E10" s="3">
-        <v>140</v>
-      </c>
-      <c r="F10" s="3">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3">
         <f>99+118+5+3</f>
         <v>225</v>
       </c>
-      <c r="H10" s="3">
-        <v>34</v>
-      </c>
-      <c r="I10" s="3">
-        <v>63</v>
-      </c>
-      <c r="J10" s="3">
-        <f>G10*(1+1)</f>
+      <c r="H9" s="2">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="18"/>
+        <v>55</v>
+      </c>
+      <c r="J9" s="2">
+        <f>G9*(1+1)</f>
         <v>450</v>
       </c>
-      <c r="K10" s="3">
-        <f t="shared" si="32"/>
-        <v>337</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" ref="L10" si="42">B10+C10+D10+F10+E10+G10+H10*0.2+I10*0.3+J10+K10</f>
-        <v>1834.7</v>
-      </c>
-      <c r="M10" s="3">
-        <f>0.1528+G10*0.0025</f>
-        <v>0.71530000000000005</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" ref="N10" si="43">L10*(M10+1)</f>
-        <v>3147.0609100000001</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="K9" s="2">
+        <f t="shared" si="19"/>
+        <v>339</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ref="L9" si="33">B9+C9+D9+F9+E9+G9+H9*0.2+I9*0.3+J9+K9</f>
+        <v>1835.9</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="21"/>
+        <v>9.35E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="7"/>
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="8"/>
+        <v>2214.0954000000002</v>
+      </c>
+      <c r="P9" s="2">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
-        <f t="shared" si="35"/>
+      <c r="Q9" s="2">
+        <f t="shared" ref="Q9" si="34">0.27</f>
         <v>0.27</v>
       </c>
-      <c r="Q10" s="3">
-        <f t="shared" ref="Q10" si="44">N10/(1+M10)*(1+P10+M10)</f>
-        <v>3642.4299100000003</v>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" si="8"/>
-        <v>2047.2438168000003</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" ref="S10" si="45">O10*(P10+1)</f>
+      <c r="R9" s="2">
+        <f t="shared" si="9"/>
+        <v>0.36350000000000005</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47600000000000003</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="23"/>
+        <v>2988.5732148148149</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="10"/>
+        <v>1830.5637807037037</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" ref="V9" si="35">P9*(Q9+1)</f>
         <v>889</v>
       </c>
-      <c r="T10" s="3">
-        <f t="shared" ref="T10" si="46">200+300+N10*0.05</f>
-        <v>657.35304550000001</v>
-      </c>
-      <c r="U10" s="3">
-        <f>(Q10+S10)*(G10/140)</f>
-        <v>7282.6552125000017</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="W9" s="2">
+        <f t="shared" ref="W9" si="36">200+300+O9*0.05</f>
+        <v>610.70477000000005</v>
+      </c>
+      <c r="X9" s="2">
+        <f>(T9+V9)*(G9/150)</f>
+        <v>5816.3598222222226</v>
+      </c>
+      <c r="Y9" s="2">
         <v>1.5166200000000001</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Z9" s="2">
         <v>1.28</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AA9" s="2">
         <v>1.31</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AB9" s="2">
         <v>1.1762999999999999</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="3">
-        <f t="shared" ref="AA10" si="47">(Q10+U10+T10)*V10*W10*(1.5*X10)*Y10</f>
-        <v>51971.755976601788</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AE9" s="2">
+        <f t="shared" si="26"/>
+        <v>42249.069096985542</v>
+      </c>
+      <c r="AF9" s="2">
         <v>420</v>
       </c>
-      <c r="AC10" s="3">
-        <f t="shared" ref="AC10" si="48">AA10*AB10/100</f>
-        <v>218281.37510172752</v>
-      </c>
-      <c r="AD10" s="3">
-        <f t="shared" ref="AD10" si="49">AC10/$AC$2</f>
-        <v>2.9612572884750707</v>
-      </c>
-      <c r="AE10" s="3">
-        <f t="shared" ref="AE10" si="50">AC10/AC9</f>
-        <v>1.1082909130584158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="AG9" s="2">
+        <f t="shared" ref="AG9" si="37">AE9*AF9/100</f>
+        <v>177446.09020733926</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" ref="AH9" si="38">AG9/$AG$2</f>
+        <v>2.773248561020619</v>
+      </c>
+      <c r="AI9" s="2">
+        <f t="shared" ref="AI9" si="39">AG9/AG8</f>
+        <v>1.0179161139525006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2088,49 +2095,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
